--- a/Assets/results.xlsx
+++ b/Assets/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student-808\Documents\Repositories\pcg-lab\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25593933-8278-403C-A28A-3DB5ED019276}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DEC315-BDD0-4E9E-8D55-E4FC42C4B8AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maps" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+  <si>
+    <t>Platform Count</t>
+  </si>
+  <si>
+    <t>Isolated Cell Count</t>
+  </si>
+  <si>
+    <t>PCG Type</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Fill Amount</t>
+  </si>
+  <si>
+    <t>Birth Limit</t>
+  </si>
+  <si>
+    <t>Death Limit</t>
+  </si>
+  <si>
+    <t>Smooth Iterations</t>
+  </si>
+  <si>
+    <t>Blend Layers</t>
+  </si>
   <si>
     <t>Average Rock Size</t>
   </si>
@@ -36,30 +66,6 @@
   </si>
   <si>
     <t>Rocks per Tile</t>
-  </si>
-  <si>
-    <t>PCG Type</t>
-  </si>
-  <si>
-    <t>Dimensions</t>
-  </si>
-  <si>
-    <t>Seed</t>
-  </si>
-  <si>
-    <t>Fill Amount</t>
-  </si>
-  <si>
-    <t>Birth Limit</t>
-  </si>
-  <si>
-    <t>Death Limit</t>
-  </si>
-  <si>
-    <t>Smooth Iterations</t>
-  </si>
-  <si>
-    <t>Blend Layers</t>
   </si>
   <si>
     <t>Angle</t>
@@ -107,13 +113,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,27 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="13" width="17.5703125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDAB17-D235-41A4-9CA0-A22868C14AC0}">
-  <dimension ref="A1:M1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,40 +415,37 @@
     <col min="1" max="13" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -464,12 +453,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FDAB17-D235-41A4-9CA0-A22868C14AC0}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34C7420-881D-4697-BB23-4C92CE5C627F}">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,40 +522,40 @@
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
